--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value524.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value524.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.010372134231402</v>
+        <v>1.285353422164917</v>
       </c>
       <c r="B1">
-        <v>1.521680890332922</v>
+        <v>2.410790205001831</v>
       </c>
       <c r="C1">
-        <v>1.959920597560666</v>
+        <v>3.237055063247681</v>
       </c>
       <c r="D1">
-        <v>2.115251674624282</v>
+        <v>3.437756776809692</v>
       </c>
       <c r="E1">
-        <v>2.398747787936851</v>
+        <v>1.06400203704834</v>
       </c>
     </row>
   </sheetData>
